--- a/火箭队商城接口测试用例.xlsx
+++ b/火箭队商城接口测试用例.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7620" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="19100" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="登录接口" sheetId="1" r:id="rId1"/>
     <sheet name="skuList接口" sheetId="2" r:id="rId2"/>
     <sheet name="查询收货地址接口" sheetId="3" r:id="rId3"/>
-    <sheet name="提交订单接口" sheetId="4" r:id="rId4"/>
-    <sheet name="添加收货地址接口" sheetId="5" r:id="rId5"/>
-    <sheet name="删除收货地址接口" sheetId="6" r:id="rId6"/>
-    <sheet name="面向场景的接口测试用例" sheetId="7" r:id="rId7"/>
-    <sheet name="获取运费接口" sheetId="8" r:id="rId8"/>
+    <sheet name="获取运费接口" sheetId="4" r:id="rId4"/>
+    <sheet name="提交订单接口" sheetId="5" r:id="rId5"/>
+    <sheet name="添加收货地址接口" sheetId="6" r:id="rId6"/>
+    <sheet name="删除收货地址接口" sheetId="7" r:id="rId7"/>
+    <sheet name="面向场景的接口测试用例" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289">
   <si>
     <t>编号</t>
   </si>
@@ -1150,6 +1150,61 @@
   <si>
     <t>code : 400
 message : "area参数不存在"</t>
+  </si>
+  <si>
+    <t>getFee1</t>
+  </si>
+  <si>
+    <t>计算运费</t>
+  </si>
+  <si>
+    <t>GET
+/common/getTransportFee</t>
+  </si>
+  <si>
+    <t>id=“1”
+addressDetail="浙江省_杭州市_西湖区"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code : 400
+message : "Id参数类型不正确"
+</t>
+  </si>
+  <si>
+    <t>getFee2</t>
+  </si>
+  <si>
+    <t>id=2
+addressDetail="浙江省_杭州市_西湖区"</t>
+  </si>
+  <si>
+    <t>code : 200
+message : "success"
+r</t>
+  </si>
+  <si>
+    <t>getFee3</t>
+  </si>
+  <si>
+    <t>id=3
+addressDetail="浙江省_杭州市_裕华区"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code : 400
+message : "参数不匹配"
+</t>
+  </si>
+  <si>
+    <t>getFee4</t>
+  </si>
+  <si>
+    <t>id=4
+addressDetail=""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code : 401
+message : "参数类型不正确"
+</t>
   </si>
   <si>
     <t>submit-1</t>
@@ -3201,52 +3256,6 @@
   <si>
     <t xml:space="preserve">5、提交订单 </t>
   </si>
-  <si>
-    <t>计算运费</t>
-  </si>
-  <si>
-    <t>GET
-/common/getTransportFee</t>
-  </si>
-  <si>
-    <t>id=“1”
-addressDetail="浙江省_杭州市_西湖区"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code : 400
-message : "Id参数类型不正确"
-</t>
-  </si>
-  <si>
-    <t>id=2
-addressDetail="浙江省_杭州市_西湖区"</t>
-  </si>
-  <si>
-    <t>code : 200
-message : "success"
-r</t>
-  </si>
-  <si>
-    <t>id=3
-addressDetail="浙江省_杭州市_裕华区"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code : 400
-message : "参数不匹配"
-</t>
-  </si>
-  <si>
-    <t>id=4
-addressDetail=""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code : 401
-message : "参数类型不正确"
-</t>
-  </si>
-  <si>
-    <t>提交订单</t>
-  </si>
 </sst>
 </file>
 
@@ -3254,11 +3263,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3284,21 +3293,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3310,7 +3324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3331,7 +3345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -3341,6 +3354,60 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3362,52 +3429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -3416,44 +3437,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF92D050"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3465,10 +3450,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -3504,31 +3494,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3546,7 +3548,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3558,55 +3632,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3624,7 +3662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3636,55 +3674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3713,6 +3703,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3720,6 +3725,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3743,7 +3757,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3751,8 +3780,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3771,51 +3800,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3833,191 +3823,185 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4030,16 +4014,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4394,7 +4378,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -4409,243 +4393,243 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="43.5" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="43.5" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="43.5" spans="1:7">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="43.5" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="43.5" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="43.5" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="43.5" spans="1:7">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" ht="43.5" spans="1:7">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="43.5" spans="1:7">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="22"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4674,426 +4658,426 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" ht="58" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" ht="58" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" ht="43.5" spans="1:7">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" ht="29" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" ht="43.5" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" ht="29" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="22"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="22"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="22"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="22"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="22"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="22"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="20"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="20"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="22"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="20"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="20"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="20"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="20"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="20"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="20"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="20"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5122,370 +5106,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="145" customHeight="1" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" ht="87" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" ht="87" spans="1:7">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" ht="87" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" ht="137" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" ht="87" spans="1:7">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" ht="120" customHeight="1" spans="1:7">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" ht="87" spans="1:7">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" ht="123" customHeight="1" spans="1:7">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="12" ht="87" spans="1:7">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="13" ht="130" customHeight="1" spans="1:7">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="14" ht="87" spans="1:7">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="15" ht="125" customHeight="1" spans="1:7">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" ht="87" spans="1:7">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5496,6 +5480,225 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="14.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="25.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="29.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="15.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1"/>
+      <c r="I1" s="16"/>
+      <c r="J1"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" ht="101" spans="1:12">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" ht="87" spans="1:7">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" ht="87" spans="1:7">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" ht="101" spans="1:7">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G11"/>
@@ -5516,256 +5719,256 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="306" customHeight="1" spans="1:7">
-      <c r="A2" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" ht="261" spans="1:7">
-      <c r="A3" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" ht="409.5" spans="1:7">
-      <c r="A4" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="F3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" ht="246.5" spans="1:7">
+      <c r="A4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" ht="409.5" spans="1:7">
-      <c r="A5" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="F4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" ht="261" spans="1:7">
+      <c r="A5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" ht="409.5" spans="1:7">
-      <c r="A6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="F5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" ht="275.5" spans="1:7">
+      <c r="A6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" ht="275.5" spans="1:7">
+      <c r="A7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" ht="409.5" spans="1:7">
-      <c r="A7" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="E7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" ht="275.5" spans="1:7">
+      <c r="A8" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D8" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" ht="409.5" spans="1:7">
-      <c r="A8" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="F8" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="16" t="s">
+    </row>
+    <row r="9" ht="275.5" spans="1:7">
+      <c r="A9" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D9" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" ht="409.5" spans="1:7">
-      <c r="A9" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="F9" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" ht="275.5" spans="1:7">
+      <c r="A10" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D10" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" ht="409.5" spans="1:7">
-      <c r="A10" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="F10" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" ht="275.5" spans="1:7">
+      <c r="A11" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D11" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" ht="409.5" spans="1:7">
-      <c r="A11" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>133</v>
+      <c r="F11" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5774,13 +5977,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -5795,504 +5998,504 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="116" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" ht="43.5" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>164</v>
+      <c r="F3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" ht="43.5" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>168</v>
+      <c r="F4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="5" ht="43.5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>168</v>
+      <c r="F5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" ht="43.5" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" ht="43.5" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" ht="43.5" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" ht="43.5" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" ht="43.5" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" ht="43.5" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" ht="43.5" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="F9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="4" t="s">
+    </row>
+    <row r="10" ht="43.5" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" ht="43.5" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="F10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" ht="43.5" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" ht="43.5" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="F11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" ht="43.5" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" ht="43.5" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="F12" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" ht="43.5" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" ht="43.5" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="F13" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" ht="43.5" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" ht="43.5" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="F14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" ht="43.5" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" ht="43.5" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="F15" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="48.75" customHeight="1" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" s="6" customFormat="1" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="F16" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" ht="43.5" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D17" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" ht="43.5" spans="1:7">
-      <c r="A17" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="F17" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="48.75" customHeight="1" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D18" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A18" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="F18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" ht="43.5" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" ht="43.5" spans="1:7">
-      <c r="A19" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -6301,7 +6504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G5"/>
@@ -6322,117 +6525,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" s="5" customFormat="1" ht="48.75" customHeight="1" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>168</v>
+      <c r="F2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="3" ht="58" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="48.75" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>213</v>
+      <c r="F4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="5" ht="43.5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -6442,13 +6645,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -6462,393 +6665,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="43.5" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>220</v>
+      <c r="F2" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="3" ht="43.5" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>222</v>
+      <c r="F3" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="4" ht="43.5" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>225</v>
+      <c r="E4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="5" ht="43.5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>228</v>
+      <c r="E5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>234</v>
+      <c r="A6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="7" ht="29" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>237</v>
+      <c r="F7" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="8" ht="43.5" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>241</v>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="9" ht="72.5" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" ht="29" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" ht="87" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" ht="29" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" ht="72.5" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" ht="29" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" ht="29" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" ht="72.5" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" ht="43.5" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="10" ht="29" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F17" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" ht="29" spans="1:6">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" ht="87" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" ht="29" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" ht="72.5" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" ht="29" spans="1:6">
-      <c r="A14" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="15" ht="29" spans="1:6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F15" s="4" t="s">
+    <row r="19" ht="87" spans="1:6">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="16" ht="72.5" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="D19" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" ht="43.5" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="20" ht="29" spans="1:6">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="D20" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="18" ht="29" spans="1:6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" ht="87" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" ht="29" spans="1:6">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="21" ht="72.5" spans="1:6">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" ht="72.5" spans="1:6">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3" t="s">
+      <c r="D21" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>261</v>
+      <c r="F21" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6862,118 +7065,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="14.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="25.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="29.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="15.4545454545455" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="101" spans="1:5">
-      <c r="A1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" ht="87" spans="1:5">
-      <c r="A2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" ht="87" spans="1:5">
-      <c r="A3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" ht="101" spans="1:5">
-      <c r="A4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" ht="58" spans="1:3">
-      <c r="A5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="58" spans="1:3">
-      <c r="A6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/火箭队商城接口测试用例.xlsx
+++ b/火箭队商城接口测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7620" activeTab="3"/>
+    <workbookView windowWidth="19100" windowHeight="7620" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="登录接口" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241">
   <si>
     <t>编号</t>
   </si>
@@ -76,7 +76,7 @@
     <t>Content-Type=application/json</t>
   </si>
   <si>
-    <t>phoneArea="86"                   phoneNumber="12345678901"password="a123"</t>
+    <t>phoneArea="86"                   phoneNumber="20000000000"password="netease123"</t>
   </si>
   <si>
     <r>
@@ -131,7 +131,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">phoneArea=86                 </t>
+    <t>phoneArea=86                  phoneNumber="20000000000"password="netease123"</t>
   </si>
   <si>
     <t>code : 400
@@ -161,7 +161,7 @@
     </r>
   </si>
   <si>
-    <t>phoneArea=“abc”</t>
+    <t>phoneArea="abc"              phoneNumber="20000000000"password="netease123"</t>
   </si>
   <si>
     <t>login-4</t>
@@ -196,7 +196,7 @@
     </r>
   </si>
   <si>
-    <t>phoneArea 无</t>
+    <t>phoneArea=""                   phoneNumber="20000000000"password="netease123"</t>
   </si>
   <si>
     <t>login-5</t>
@@ -222,7 +222,8 @@
     </r>
   </si>
   <si>
-    <t>phoneNumber=123456</t>
+    <t>phoneArea="86"                   phoneNumber=123456
+password="netease123"</t>
   </si>
   <si>
     <t>login-6</t>
@@ -248,7 +249,8 @@
     </r>
   </si>
   <si>
-    <t>phoneNumber无</t>
+    <t>phoneArea="86"                   phoneNumber=""
+password="netease123"</t>
   </si>
   <si>
     <t>login-7</t>
@@ -274,7 +276,7 @@
     </r>
   </si>
   <si>
-    <t>phoneNumber=“12345678901234”</t>
+    <t>phoneArea="86"                   phoneNumber="12345678901234"password="netease123"</t>
   </si>
   <si>
     <t>login-8</t>
@@ -300,7 +302,7 @@
     </r>
   </si>
   <si>
-    <t>password=123</t>
+    <t>phoneArea="86"                   phoneNumber="20000000000"password=123</t>
   </si>
   <si>
     <t>login-9</t>
@@ -326,24 +328,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 无</t>
-    </r>
+    <t>phoneArea="86"                   phoneNumber="20000000000"password=""</t>
   </si>
   <si>
     <t>响应检查点（预期结果）</t>
@@ -668,488 +653,8 @@
 /fgadmin/address/list</t>
   </si>
   <si>
-    <t>receiverName="张三"
-cellPhone="12345678901"
-addressDetail="浙江大学"
-province="浙江省"
-city="杭州市"
-area="滨江区"</t>
-  </si>
-  <si>
     <t>code : 200
 message : "success"</t>
-  </si>
-  <si>
-    <t>addresslist-2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询收货地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败，receiveName参数类型不正确</t>
-    </r>
-  </si>
-  <si>
-    <t>receiverName="张3"
-cellPhone="12345678901"
-addressDetail="浙江大学"
-province="浙江省"
-city="杭州市"
-area="滨江区"</t>
-  </si>
-  <si>
-    <t>code : 400
-message : "receiveName参数类型不正确"</t>
-  </si>
-  <si>
-    <t>addresslist-3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询收货地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败，缺少receive参数</t>
-    </r>
-  </si>
-  <si>
-    <t>receiverName=""
-cellPhone="12345678901"
-addressDetail="浙江大学"
-province="浙江省"
-city="杭州市"
-area="滨江区"</t>
-  </si>
-  <si>
-    <t>code : 400
-message : "receiveName参数不存在"</t>
-  </si>
-  <si>
-    <t>addresslist-4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询收货地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败，区不匹配</t>
-    </r>
-  </si>
-  <si>
-    <t>receiverName="张三"
-cellPhone="12345678901"
-addressDetail="浙江大学"
-province="浙江省"
-city="杭州市"
-area="桥西区"</t>
-  </si>
-  <si>
-    <t>code : 400
-message : "请求参数不正确"</t>
-  </si>
-  <si>
-    <t>addresslist-5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询收货地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败，市不匹配</t>
-    </r>
-  </si>
-  <si>
-    <t>receiverName="张三"
-cellPhone="12345678901"
-addressDetail="浙江大学"
-province="浙江省"
-city="石家庄市"
-area="滨江区"</t>
-  </si>
-  <si>
-    <t>addresslist-6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询收货地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败，cellPhone参数类型不正确</t>
-    </r>
-  </si>
-  <si>
-    <t>receiverName="张三"
-cellPhone="1234567890d"
-addressDetail="浙江大学"
-province="浙江省"
-city="杭州市"
-area="滨江区"</t>
-  </si>
-  <si>
-    <t>code : 400
-message : "cellPhone参数类型不正确"</t>
-  </si>
-  <si>
-    <t>addresslist-7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询收货地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败，缺少cellPhone参数</t>
-    </r>
-  </si>
-  <si>
-    <t>receiverName=""张三
-cellPhone=""
-addressDetail="浙江大学"
-province="浙江省"
-city="杭州市"
-area="滨江区"</t>
-  </si>
-  <si>
-    <t>code : 400
-message : "cellPhone参数不存在"</t>
-  </si>
-  <si>
-    <t>addresslist-8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询收货地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败，addressDetail参数类型不正确</t>
-    </r>
-  </si>
-  <si>
-    <t>receiverName="张三"
-cellPhone="12345678901"
-addressDetail="浙江8学"
-province="浙江省"
-city="杭州市"
-area="滨江区"</t>
-  </si>
-  <si>
-    <t>code : 400
-message : "addressDetail参数类型不正确"</t>
-  </si>
-  <si>
-    <t>addresslist-9</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询收货地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败，缺少addressDetail参数</t>
-    </r>
-  </si>
-  <si>
-    <t>receiverName=""张三
-cellPhone="12345678901"
-addressDetail=""
-province="浙江省"
-city="杭州市"
-area="滨江区"</t>
-  </si>
-  <si>
-    <t>code : 400
-message : "addressDetail参数不存在"</t>
-  </si>
-  <si>
-    <t>addresslist-10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询收货地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败，province参数类型不正确</t>
-    </r>
-  </si>
-  <si>
-    <t>receiverName="张三"
-cellPhone="12345678901"
-addressDetail="浙江大学"
-province="浙j省"
-city="杭州市"
-area="滨江区"</t>
-  </si>
-  <si>
-    <t>code : 400
-message : "province参数类型不正确"</t>
-  </si>
-  <si>
-    <t>addresslist-11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询收货地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败，缺少province参数</t>
-    </r>
-  </si>
-  <si>
-    <t>receiverName=""张三
-cellPhone="12345678901"
-addressDetail="浙江大学"
-province=""
-city="杭州市"
-area="滨江区"</t>
-  </si>
-  <si>
-    <t>code : 400
-message : "province参数不存在"</t>
-  </si>
-  <si>
-    <t>addresslist-12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询收货地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败，city参数类型不正确</t>
-    </r>
-  </si>
-  <si>
-    <t>receiverName="张三"
-cellPhone="12345678901"
-addressDetail="浙江大学"
-province="浙江省"
-city="杭z市"
-area="滨江区"</t>
-  </si>
-  <si>
-    <t>code : 400
-message : "city参数类型不正确"</t>
-  </si>
-  <si>
-    <t>addresslist-13</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询收货地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败，缺少city参数</t>
-    </r>
-  </si>
-  <si>
-    <t>receiverName=""张三
-cellPhone="12345678901"
-addressDetail="浙江大学"
-province="浙江省"
-city=""
-area="滨江区"</t>
-  </si>
-  <si>
-    <t>code : 400
-message : "city参数不存在"</t>
-  </si>
-  <si>
-    <t>addresslist-14</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询收货地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败，areal参数类型不正确</t>
-    </r>
-  </si>
-  <si>
-    <t>receiverName="张三"
-cellPhone="12345678901"
-addressDetail="浙江大学"
-province="浙江省"
-city="杭州市"
-area="桥7区"</t>
-  </si>
-  <si>
-    <t>code : 400
-message : "area参数类型不正确"</t>
-  </si>
-  <si>
-    <t>addresslist-15</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询收货地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败，缺少areal参数</t>
-    </r>
-  </si>
-  <si>
-    <t>receiverName=""张三
-cellPhone=""
-addressDetail="浙江大学"
-province="浙江省"
-city="杭州市"
-area=""</t>
-  </si>
-  <si>
-    <t>code : 400
-message : "area参数不存在"</t>
   </si>
   <si>
     <t>getFee1</t>
@@ -1265,168 +770,33 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cellPhone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型不正确</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">skuIds="2,3",
-skuNumbers="1,1",
-stockIds="74966312,74966313",
-receiverName="张三",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cellPhone=12615813537,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
-invoiceHead="",
-transportFee=0,
-logisticsCompanyId=1,
-accessSource="noSource"
-accessDevice=0</t>
-    </r>
-  </si>
-  <si>
-    <t>code : 400
-message : "请求失败"</t>
-  </si>
-  <si>
-    <t>submit-3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提交订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cellPhone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不存在</t>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功（非必填选项为空）</t>
     </r>
   </si>
   <si>
     <t>skuIds="2,3",
 skuNumbers="1,1",
 stockIds="74966312,74966313",
-receiverName="张三",
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
+receiverName="",
+cellPhone="",
+addressDetail="",
+province="",
+city="",
+area="",
+voiceStatus=,
+needInvoice=,
 invoiceHead="",
-transportFee=0,
-logisticsCompanyId=1,
-accessSource="noSource"
-accessDevice=0</t>
-  </si>
-  <si>
-    <t>submit-4</t>
+transportFee=,
+logisticsCompanyId=,
+accessSource=""
+accessDevice=</t>
+  </si>
+  <si>
+    <t>submit-3</t>
   </si>
   <si>
     <r>
@@ -1461,29 +831,15 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>cellPhone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">skuIds="2,3",
-skuNumbers="1,1",
-stockIds="74966312,74966313",
-receiverName="张三",
-</t>
+      <t>skuIds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
     </r>
     <r>
       <rPr>
@@ -1492,7 +848,18 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>cellPhone="",</t>
+      <t>类型不正确</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skuIds=2,3,</t>
     </r>
     <r>
       <rPr>
@@ -1501,245 +868,6 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
-invoiceHead="",
-transportFee=0,
-logisticsCompanyId=1,
-accessSource="noSource"
-accessDevice=0</t>
-    </r>
-  </si>
-  <si>
-    <t>submit-5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提交订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cellPhone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>长度过长</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">skuIds="2,3",
-skuNumbers="1,1",
-stockIds="74966312,74966313",
-receiverName="张三",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cellPhone="13214234324235252",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
-invoiceHead="",
-transportFee=0,
-logisticsCompanyId=1,
-accessSource="noSource"
-accessDevice=0</t>
-    </r>
-  </si>
-  <si>
-    <t>submit-6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提交订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>receiverName参数类型不正确</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">skuIds="2,3",
-skuNumbers="1,1",
-stockIds="74966312,74966313",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>receiverName=张三,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-cellPhone="12615813537",
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
-invoiceHead="",
-transportFee=0,
-logisticsCompanyId=1,
-accessSource="noSource"
-accessDevice=0</t>
-    </r>
-  </si>
-  <si>
-    <t>submit-7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提交订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>skuIds参数类型不正确</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>skuIds=2,3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,
 skuNumbers="1,1",
 stockIds="74966312,74966313",
 receiverName="张三",
@@ -1758,7 +886,11 @@
     </r>
   </si>
   <si>
-    <t>submit-8</t>
+    <t>code : 400
+message : "请求失败"</t>
+  </si>
+  <si>
+    <t>submit-4</t>
   </si>
   <si>
     <r>
@@ -1793,17 +925,221 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>skuNumbers参数类型不正确</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">skuIds="2,3",
+      <t>skuIds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不存在</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+skuNumbers="1,1",
+stockIds="74966312,74966313",
+receiverName="张三",
+cellPhone="12615813537",
+addressDetail="1 栋 3 单元",
+province="浙江省",
+city="杭州市",
+area="滨江区",
+voiceStatus=0,
+needInvoice=0,
+invoiceHead="",
+transportFee=0,
+logisticsCompanyId=1,
+accessSource="noSource"
+accessDevice=0</t>
+  </si>
+  <si>
+    <t>submit-5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skuIds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为空</t>
+    </r>
+  </si>
+  <si>
+    <t>skuIds="",
+skuNumbers="1,1",
+stockIds="74966312,74966313",
+receiverName="张三",
+cellPhone="12615813537",
+addressDetail="1 栋 3 单元",
+province="浙江省",
+city="杭州市",
+area="滨江区",
+voiceStatus=0,
+needInvoice=0,
+invoiceHead="",
+transportFee=0,
+logisticsCompanyId=1,
+accessSource="noSource"
+accessDevice=0</t>
+  </si>
+  <si>
+    <t>submit-6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skuNumbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量超过库存</t>
+    </r>
+  </si>
+  <si>
+    <t>skuIds="2,3",
+skuNumbers="100000，,1000000",
+stockIds="74966312,74966313",
+receiverName="张三",
+cellPhone="12615813537",
+addressDetail="1 栋 3 单元",
+province="浙江省",
+city="杭州市",
+area="滨江区",
+voiceStatus=0,
+needInvoice=0,
+invoiceHead="",
+transportFee=0,
+logisticsCompanyId=1,
+accessSource="noSource"
+accessDevice=0</t>
+  </si>
+  <si>
+    <t>submit-7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skuNumbers参数为空</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">skuIds=“2,3”,
 </t>
     </r>
     <r>
@@ -1813,7 +1149,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>skuNumbers=1,1</t>
+      <t>skuNumbers="",</t>
     </r>
     <r>
       <rPr>
@@ -1839,7 +1175,144 @@
     </r>
   </si>
   <si>
+    <t>submit-8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skuNumbers参数类型不正确</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">skuIds="2,3",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skuNumbers=1,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+stockIds="74966312,74966313",
+receiverName="张三",
+cellPhone="12615813537",
+addressDetail="1 栋 3 单元",
+province="浙江省",
+city="杭州市",
+area="滨江区",
+voiceStatus=0,
+needInvoice=0,
+invoiceHead="",
+transportFee=0,
+logisticsCompanyId=1,
+accessSource="noSource"
+accessDevice=0</t>
+    </r>
+  </si>
+  <si>
     <t>submit-9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skuNumbers参数不存在</t>
+    </r>
+  </si>
+  <si>
+    <t>skuIds="2,3",
+stockIds="74966312,74966313",
+receiverName="张三",
+cellPhone="12615813537",
+addressDetail="1 栋 3 单元",
+province="浙江省",
+city="杭州市",
+area="滨江区",
+voiceStatus=0,
+needInvoice=0,
+invoiceHead="",
+transportFee=0,
+logisticsCompanyId=1,
+accessSource="noSource"
+accessDevice=0</t>
+  </si>
+  <si>
+    <t>submit-10</t>
   </si>
   <si>
     <r>
@@ -1920,7 +1393,7 @@
     </r>
   </si>
   <si>
-    <t>submit-10</t>
+    <t>submit-11</t>
   </si>
   <si>
     <r>
@@ -1946,7 +1419,16 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>，市和区不匹配</t>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stockIds参数为空</t>
     </r>
   </si>
   <si>
@@ -1957,31 +1439,31 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">skuIds="2,3",
-skuNumbers="1,1",
-stockIds="74966312,74966313",
+skuNumbers=“1,1”，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stockIds=“”,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 receiverName="张三",
 cellPhone="12615813537",
 addressDetail="1 栋 3 单元",
 province="浙江省",
 city="杭州市",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>area="西湖区",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+area="滨江区",
 voiceStatus=0,
 needInvoice=0,
 invoiceHead="",
@@ -1992,6 +1474,76 @@
     </r>
   </si>
   <si>
+    <t>submit-12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stockIds参数不存在</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skuIds="2,3",
+skuNumbers=“1,1”，
+receiverName="张三",
+cellPhone="12615813537",
+addressDetail="1 栋 3 单元",
+province="浙江省",
+city="杭州市",
+area="滨江区",
+voiceStatus=0,
+needInvoice=0,
+invoiceHead="",
+transportFee=0,
+logisticsCompanyId=2,
+accessSource="no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Segoe UI"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ǔ</t>
+    </r>
+  </si>
+  <si>
     <t>addressnew-1</t>
   </si>
   <si>
@@ -2018,6 +1570,14 @@
 /fgadmin/address/new</t>
   </si>
   <si>
+    <t>receiverName="张三"
+cellPhone="12345678901"
+addressDetail="浙江大学"
+province="浙江省"
+city="杭州市"
+area="滨江区"</t>
+  </si>
+  <si>
     <t>addressnew-2</t>
   </si>
   <si>
@@ -2479,6 +2039,10 @@
   </si>
   <si>
     <t>id=null</t>
+  </si>
+  <si>
+    <t>code : 400
+message : "header参数不合法"</t>
   </si>
   <si>
     <t>addressdel-2</t>
@@ -3263,11 +2827,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3289,6 +2853,17 @@
     <font>
       <sz val="10"/>
       <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3317,6 +2892,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -3324,7 +2906,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3337,60 +2919,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -3413,8 +2941,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3437,10 +3004,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF92D050"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <charset val="238"/>
     </font>
     <font>
       <i/>
@@ -3461,7 +3041,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3488,25 +3068,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3524,19 +3182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3548,7 +3194,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3560,73 +3224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3644,37 +3248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3720,20 +3294,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3749,6 +3327,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3776,36 +3374,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3823,134 +3397,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3981,14 +3555,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3996,7 +3576,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4005,19 +3585,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4378,7 +3946,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -4454,7 +4022,7 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -4465,7 +4033,7 @@
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -4488,7 +4056,7 @@
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -4500,7 +4068,7 @@
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -4511,7 +4079,7 @@
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -4534,7 +4102,7 @@
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -4546,18 +4114,18 @@
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="43.5" spans="1:7">
+    <row r="8" ht="58" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4580,7 +4148,7 @@
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -4592,7 +4160,7 @@
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -4603,7 +4171,7 @@
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -4615,7 +4183,7 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -4623,13 +4191,13 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="20"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4643,8 +4211,8 @@
   <sheetPr/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -4658,25 +4226,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" spans="1:7">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4819,265 +4387,265 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="18"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="18"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="20"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="18"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="18"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="20"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="20"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="18"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="20"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="18"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="18"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="20"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="18"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="18"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="18"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="18"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="18"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="18"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="18"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="18"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="18"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="18"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="18"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="18"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="18"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="18"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="18"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="18"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="18"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5092,7 +4660,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -5128,7 +4696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="145" customHeight="1" spans="1:7">
+    <row r="2" ht="63" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
@@ -5145,333 +4713,137 @@
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" ht="87" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" ht="87" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" ht="118" customHeight="1" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" ht="87" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" ht="137" customHeight="1" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" ht="87" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" ht="120" customHeight="1" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" ht="87" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" ht="123" customHeight="1" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" ht="87" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" ht="130" customHeight="1" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" ht="87" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" ht="125" customHeight="1" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" ht="87" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>125</v>
-      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" ht="13" customHeight="1" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" ht="13" customHeight="1" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" ht="14" customHeight="1" spans="1:7">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5484,20 +4856,22 @@
   <sheetPr/>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="25.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="29.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="15.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="11.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="8.90909090909091" customWidth="1"/>
+    <col min="4" max="4" width="24.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="29.0909090909091" customWidth="1"/>
+    <col min="6" max="6" width="12.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="13.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" spans="1:12">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5519,178 +4893,176 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1"/>
-      <c r="I1" s="16"/>
-      <c r="J1"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" ht="101" spans="1:12">
+      <c r="I1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" ht="49" customHeight="1" spans="1:12">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>128</v>
+      <c r="D2" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" ht="87" spans="1:7">
+      <c r="F2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" ht="58" spans="1:7">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>128</v>
+      <c r="D3" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" ht="87" spans="1:7">
+      <c r="F3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" ht="74" customHeight="1" spans="1:7">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>128</v>
+      <c r="D4" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" ht="101" spans="1:7">
+      <c r="F4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" ht="59" customHeight="1" spans="1:7">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>128</v>
+      <c r="D5" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>139</v>
+      <c r="F5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="16"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="16"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="16"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="16"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="16"/>
+      <c r="C10" s="18"/>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="16"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="16"/>
+      <c r="C12" s="18"/>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="16"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="16"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="16"/>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="16"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="16"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="16"/>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="16"/>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="16"/>
+      <c r="C20" s="18"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="16"/>
+      <c r="C21" s="18"/>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="16"/>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="16"/>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="16"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="16"/>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="16"/>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="16"/>
+      <c r="C27" s="18"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="16"/>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="16"/>
+      <c r="C29" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5701,10 +5073,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -5742,233 +5114,279 @@
       </c>
     </row>
     <row r="2" ht="306" customHeight="1" spans="1:7">
-      <c r="A2" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" ht="261" spans="1:7">
-      <c r="A3" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="F2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" ht="246.5" spans="1:7">
+      <c r="A3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" ht="246.5" spans="1:7">
-      <c r="A4" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="F3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" ht="275.5" spans="1:7">
+      <c r="A4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" ht="261" spans="1:7">
-      <c r="A5" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="F4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" ht="275.5" spans="1:7">
+      <c r="A5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>147</v>
+      <c r="F5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" ht="275.5" spans="1:7">
-      <c r="A6" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" ht="275.5" spans="1:7">
-      <c r="A7" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="F6" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" ht="290" spans="1:7">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>147</v>
+      <c r="F7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="275.5" spans="1:7">
-      <c r="A8" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>147</v>
+      <c r="F8" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" ht="275.5" spans="1:7">
-      <c r="A9" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" ht="275.5" spans="1:7">
-      <c r="A10" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="F9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" ht="261" spans="1:7">
+      <c r="A10" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>147</v>
+      <c r="F10" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" ht="275.5" spans="1:7">
-      <c r="A11" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>147</v>
+      <c r="F11" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" ht="261" spans="1:7">
+      <c r="A12" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" ht="233.5" spans="1:7">
+      <c r="A13" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5980,10 +5398,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -6022,417 +5440,361 @@
     </row>
     <row r="2" ht="116" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" ht="43.5" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" ht="43.5" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" ht="43.5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" ht="43.5" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" ht="43.5" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" ht="43.5" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" ht="43.5" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" ht="43.5" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" ht="43.5" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" ht="43.5" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" ht="43.5" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" ht="43.5" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" ht="43.5" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" ht="43.5" spans="1:7">
-      <c r="A17" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="1" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" ht="43.5" spans="1:7">
-      <c r="A19" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>70</v>
-      </c>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="12" customHeight="1" spans="1:7">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="13" customHeight="1" spans="1:7">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="10"/>
@@ -6489,13 +5851,22 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -6510,7 +5881,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -6549,94 +5920,94 @@
     </row>
     <row r="2" s="5" customFormat="1" ht="48.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" ht="58" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" ht="48.75" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" ht="43.5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6666,7 +6037,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6686,10 +6057,10 @@
     </row>
     <row r="2" ht="43.5" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>46</v>
@@ -6701,13 +6072,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" ht="43.5" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>46</v>
@@ -6719,13 +6090,13 @@
         <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" ht="43.5" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>46</v>
@@ -6734,16 +6105,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" ht="43.5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>46</v>
@@ -6752,306 +6123,306 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" ht="29" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" ht="43.5" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" ht="72.5" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" ht="29" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" ht="87" spans="1:6">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" ht="29" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" ht="72.5" spans="1:6">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" ht="29" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" ht="29" spans="1:6">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" ht="72.5" spans="1:6">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" ht="43.5" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" ht="29" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" ht="87" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" ht="29" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" ht="72.5" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/火箭队商城接口测试用例.xlsx
+++ b/火箭队商城接口测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7620" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="19100" windowHeight="7620" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="登录接口" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="添加收货地址接口" sheetId="6" r:id="rId6"/>
     <sheet name="删除收货地址接口" sheetId="7" r:id="rId7"/>
     <sheet name="面向场景的接口测试用例" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
   <si>
     <t>编号</t>
   </si>
@@ -738,22 +739,15 @@
 /fgadmin/orders/submit</t>
   </si>
   <si>
-    <t>skuIds="2,3",
-skuNumbers="1,1",
-stockIds="74966312,74966313",
-receiverName="张三",
-cellPhone="12615813537",
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
-invoiceHead="",
-transportFee=0,
-logisticsCompanyId=1,
-accessSource="noSource"
-accessDevice=0</t>
+    <t>skuIds="2,3"
+skuNumbers="1,1"
+stockIds="74966312,74966313"
+receiverName =""
+cellPhone =""
+addressDetail="" 
+province =""
+city =""
+area =""</t>
   </si>
   <si>
     <t>submit-2</t>
@@ -770,46 +764,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成功（非必填选项为空）</t>
-    </r>
-  </si>
-  <si>
-    <t>skuIds="2,3",
-skuNumbers="1,1",
-stockIds="74966312,74966313",
-receiverName="",
-cellPhone="",
-addressDetail="",
-province="",
-city="",
-area="",
-voiceStatus=,
-needInvoice=,
-invoiceHead="",
-transportFee=,
-logisticsCompanyId=,
-accessSource=""
-accessDevice=</t>
-  </si>
-  <si>
-    <t>submit-3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提交订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
@@ -853,12 +807,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>skuIds=2,3,</t>
     </r>
     <r>
@@ -870,19 +818,12 @@
       <t xml:space="preserve">
 skuNumbers="1,1",
 stockIds="74966312,74966313",
-receiverName="张三",
-cellPhone="12615813537",
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
-invoiceHead="",
-transportFee=0,
-logisticsCompanyId=1,
-accessSource="noSource"
-accessDevice=0</t>
+receiverName =""
+cellPhone =""
+addressDetail="" 
+province =""
+city =""
+area =""</t>
     </r>
   </si>
   <si>
@@ -890,81 +831,7 @@
 message : "请求失败"</t>
   </si>
   <si>
-    <t>submit-4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提交订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>skuIds</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不存在</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-skuNumbers="1,1",
-stockIds="74966312,74966313",
-receiverName="张三",
-cellPhone="12615813537",
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
-invoiceHead="",
-transportFee=0,
-logisticsCompanyId=1,
-accessSource="noSource"
-accessDevice=0</t>
-  </si>
-  <si>
-    <t>submit-5</t>
+    <t>submit-3</t>
   </si>
   <si>
     <r>
@@ -1014,22 +881,15 @@
     <t>skuIds="",
 skuNumbers="1,1",
 stockIds="74966312,74966313",
-receiverName="张三",
-cellPhone="12615813537",
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
-invoiceHead="",
-transportFee=0,
-logisticsCompanyId=1,
-accessSource="noSource"
-accessDevice=0</t>
-  </si>
-  <si>
-    <t>submit-6</t>
+receiverName =""
+cellPhone =""
+addressDetail="" 
+province =""
+city =""
+area =""</t>
+  </si>
+  <si>
+    <t>submit-4</t>
   </si>
   <si>
     <r>
@@ -1079,22 +939,15 @@
     <t>skuIds="2,3",
 skuNumbers="100000，,1000000",
 stockIds="74966312,74966313",
-receiverName="张三",
-cellPhone="12615813537",
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
-invoiceHead="",
-transportFee=0,
-logisticsCompanyId=1,
-accessSource="noSource"
-accessDevice=0</t>
-  </si>
-  <si>
-    <t>submit-7</t>
+receiverName =""
+cellPhone =""
+addressDetail="" 
+province =""
+city =""
+area =""</t>
+  </si>
+  <si>
+    <t>submit-5</t>
   </si>
   <si>
     <r>
@@ -1134,11 +987,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">skuIds=“2,3”,
 </t>
     </r>
@@ -1159,23 +1007,16 @@
       </rPr>
       <t xml:space="preserve">
 stockIds="74966312,74966313",
-receiverName="张三",
-cellPhone="12615813537",
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
-invoiceHead="",
-transportFee=0,
-logisticsCompanyId=1,
-accessSource="noSource"
-accessDevice=0</t>
-    </r>
-  </si>
-  <si>
-    <t>submit-8</t>
+receiverName =""
+cellPhone =""
+addressDetail="" 
+province =""
+city =""
+area =""</t>
+    </r>
+  </si>
+  <si>
+    <t>submit-6</t>
   </si>
   <si>
     <r>
@@ -1215,11 +1056,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">skuIds="2,3",
 </t>
     </r>
@@ -1240,23 +1076,16 @@
       </rPr>
       <t xml:space="preserve">
 stockIds="74966312,74966313",
-receiverName="张三",
-cellPhone="12615813537",
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
-invoiceHead="",
-transportFee=0,
-logisticsCompanyId=1,
-accessSource="noSource"
-accessDevice=0</t>
-    </r>
-  </si>
-  <si>
-    <t>submit-9</t>
+receiverName =""
+cellPhone =""
+addressDetail="" 
+province =""
+city =""
+area =""</t>
+    </r>
+  </si>
+  <si>
+    <t>submit-7</t>
   </si>
   <si>
     <r>
@@ -1291,72 +1120,11 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>skuNumbers参数不存在</t>
-    </r>
-  </si>
-  <si>
-    <t>skuIds="2,3",
-stockIds="74966312,74966313",
-receiverName="张三",
-cellPhone="12615813537",
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
-invoiceHead="",
-transportFee=0,
-logisticsCompanyId=1,
-accessSource="noSource"
-accessDevice=0</t>
-  </si>
-  <si>
-    <t>submit-10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提交订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>stockIds参数类型不正确</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">skuIds="2,3",
 skuNumbers=“1,1”，
 </t>
@@ -1368,32 +1136,17 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>stockIds=74966312,74966313,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-receiverName="张三",
-cellPhone="12615813537",
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
-invoiceHead="",
-transportFee=0,
-logisticsCompanyId=1,
-accessSource="noSource"
-accessDevice=0</t>
-    </r>
-  </si>
-  <si>
-    <t>submit-11</t>
+      <t>stockIds=74966312,74966313,
+receiverName =""
+cellPhone =""
+addressDetail="" 
+province =""
+city =""
+area =""</t>
+    </r>
+  </si>
+  <si>
+    <t>submit-8</t>
   </si>
   <si>
     <r>
@@ -1433,11 +1186,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">skuIds="2,3",
 skuNumbers=“1,1”，
 </t>
@@ -1449,98 +1197,13 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>stockIds=“”,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-receiverName="张三",
-cellPhone="12615813537",
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
-invoiceHead="",
-transportFee=0,
-logisticsCompanyId=1,
-accessSource="noSource"
-accessDevice=0</t>
-    </r>
-  </si>
-  <si>
-    <t>submit-12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提交订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>stockIds参数不存在</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>skuIds="2,3",
-skuNumbers=“1,1”，
-receiverName="张三",
-cellPhone="12615813537",
-addressDetail="1 栋 3 单元",
-province="浙江省",
-city="杭州市",
-area="滨江区",
-voiceStatus=0,
-needInvoice=0,
-invoiceHead="",
-transportFee=0,
-logisticsCompanyId=2,
-accessSource="no</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Ǔ</t>
+      <t>stockIds=“”,
+receiverName =""
+cellPhone =""
+addressDetail="" 
+province =""
+city =""
+area =""</t>
     </r>
   </si>
   <si>
@@ -2826,12 +2489,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2857,27 +2520,85 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2891,22 +2612,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2921,14 +2629,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2957,46 +2657,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -3004,23 +2664,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF92D050"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Segoe UI"/>
-      <charset val="238"/>
     </font>
     <font>
       <i/>
@@ -3068,7 +2715,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3086,19 +2769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3110,13 +2781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3128,25 +2793,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3158,13 +2829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3188,7 +2853,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3200,55 +2877,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3277,6 +2924,71 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3301,56 +3013,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3359,27 +3021,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3397,130 +3044,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3567,16 +3214,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4857,7 +4504,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -5073,10 +4720,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -5113,281 +4760,192 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="306" customHeight="1" spans="1:7">
+    <row r="2" ht="147" customHeight="1" spans="1:7">
       <c r="A2" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" ht="246.5" spans="1:7">
+    <row r="3" ht="145" spans="1:7">
       <c r="A3" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>90</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" ht="275.5" spans="1:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" ht="145" spans="1:7">
       <c r="A4" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" ht="275.5" spans="1:7">
+      <c r="G4" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" ht="159.5" spans="1:7">
       <c r="A5" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" ht="275.5" spans="1:7">
+      <c r="G5" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" ht="145" spans="1:7">
       <c r="A6" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" ht="290" spans="1:7">
+      <c r="G6" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" ht="145" spans="1:7">
       <c r="A7" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" ht="275.5" spans="1:7">
+      <c r="G7" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" ht="145" spans="1:7">
       <c r="A8" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" ht="275.5" spans="1:7">
+      <c r="G8" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" ht="130.5" spans="1:7">
       <c r="A9" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" ht="261" spans="1:7">
-      <c r="A10" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" ht="275.5" spans="1:7">
-      <c r="A11" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" ht="261" spans="1:7">
-      <c r="A12" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" ht="233.5" spans="1:7">
-      <c r="A13" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>94</v>
-      </c>
+      <c r="G9" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5400,8 +4958,8 @@
   <sheetPr/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -5440,22 +4998,22 @@
     </row>
     <row r="2" ht="116" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>69</v>
@@ -5463,301 +5021,301 @@
     </row>
     <row r="3" ht="43.5" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" ht="43.5" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" ht="43.5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="43.5" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" ht="43.5" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" ht="43.5" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" ht="43.5" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" ht="43.5" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" ht="43.5" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" ht="43.5" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" ht="43.5" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" ht="43.5" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" ht="43.5" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" ht="12" customHeight="1" spans="1:7">
@@ -5881,7 +5439,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -5920,91 +5478,91 @@
     </row>
     <row r="2" s="5" customFormat="1" ht="48.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" ht="58" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" ht="48.75" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" ht="43.5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>69</v>
@@ -6021,8 +5579,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -6037,7 +5595,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6057,10 +5615,10 @@
     </row>
     <row r="2" ht="43.5" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>46</v>
@@ -6072,13 +5630,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" ht="43.5" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>46</v>
@@ -6090,13 +5648,13 @@
         <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" ht="43.5" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>46</v>
@@ -6105,16 +5663,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" ht="43.5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>46</v>
@@ -6123,306 +5681,306 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" ht="29" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" ht="43.5" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" ht="72.5" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" ht="29" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" ht="87" spans="1:6">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" ht="29" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" ht="72.5" spans="1:6">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" ht="29" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" ht="29" spans="1:6">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" ht="72.5" spans="1:6">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" ht="43.5" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" ht="29" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" ht="87" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" ht="29" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" ht="72.5" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -6436,4 +5994,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>